--- a/output.xlsx
+++ b/output.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E82"/>
+  <dimension ref="A1:F69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,13 +424,13 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>1.10
+          <t>7.1
 任来兵</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>1
+          <t>7.1
 谢继钊</t>
         </is>
       </c>
@@ -450,6 +450,12 @@
         <is>
           <t>7.1
 贾相如</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>7.1
+魏亦聪</t>
         </is>
       </c>
     </row>
@@ -457,31 +463,37 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>7.1
-魏亦聪</t>
+庞祎祥</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
           <t>7.1
-庞祎祥</t>
+赵研</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
           <t>7.1
-赵研</t>
+王金科</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
           <t>7.1
-王金科</t>
+魏志奥</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>7.1
-魏志奥</t>
+解典典</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.1
+解庆诺</t>
         </is>
       </c>
     </row>
@@ -489,31 +501,37 @@
       <c r="A3" t="inlineStr">
         <is>
           <t>7.1
-解典典</t>
+肖逸</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>7.1
-解庆诺</t>
+任传勋</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
           <t>7.1
-肖逸</t>
+崔胜奥</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
           <t>7.1
-任传勋</t>
+李志阳</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>7.1
-崔胜奥</t>
+谢庆腾</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.1
+张猛</t>
         </is>
       </c>
     </row>
@@ -521,31 +539,37 @@
       <c r="A4" t="inlineStr">
         <is>
           <t>7.1
-李志阳</t>
+周宝麒</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>7.1
-谢庆腾</t>
+乔知博</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
           <t>7.1
-张猛</t>
+孙夏</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
           <t>7.1
-周宝麒</t>
+王雨涵</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>7.1
-乔知博</t>
+伍雨晨</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.1
+伍梦娇</t>
         </is>
       </c>
     </row>
@@ -553,31 +577,37 @@
       <c r="A5" t="inlineStr">
         <is>
           <t>7.1
-孙夏</t>
+孙淑洁</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>7.1
-王雨涵</t>
+王甜甜</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
           <t>7.1
-伍雨晨</t>
+王娜娜</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
           <t>7.1
-伍梦娇</t>
+王奥爽</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>7.1
-孙淑洁</t>
+王雨萌</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.1
+王笑</t>
         </is>
       </c>
     </row>
@@ -585,31 +615,37 @@
       <c r="A6" t="inlineStr">
         <is>
           <t>7.1
-王甜甜</t>
+张舒悦</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>7.1
-王娜娜</t>
+王迎娣</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
           <t>7.1
-王奥爽</t>
+王傲雪</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
           <t>7.1
-王雨萌</t>
+任文悦</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>7.1
-王笑</t>
+伍倩</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.1
+高诺</t>
         </is>
       </c>
     </row>
@@ -617,63 +653,75 @@
       <c r="A7" t="inlineStr">
         <is>
           <t>7.1
-张舒悦</t>
+肖文迪</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>7.1
-王迎娣</t>
+陈惠彤</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
           <t>7.1
-王傲雪</t>
+刘静蕊</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
           <t>7.1
-任文悦</t>
+朱玉姝</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>7.1
-伍倩</t>
+          <t>7.2
+刘新畅</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.2
+张宗贺</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>7.1
-高诺</t>
+          <t>7.2
+伍昌淼</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>7.1
-肖文迪</t>
+          <t>7.2
+魏庆运</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>7.1
-陈惠彤</t>
+          <t>7.2
+王家杰</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>7.1
-刘静蕊</t>
+          <t>7.2
+魏延奇</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>7.1
-朱玉姝</t>
+          <t>7.2
+王志祥</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.2
+刘志坚</t>
         </is>
       </c>
     </row>
@@ -681,31 +729,37 @@
       <c r="A9" t="inlineStr">
         <is>
           <t>7.2
-刘新畅</t>
+国文</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>7.2
-张宗贺</t>
+吴洪伟</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
           <t>7.2
-伍昌淼</t>
+谢记川</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
           <t>7.2
-魏庆运</t>
+卜令淼</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
           <t>7.2
-王家杰</t>
+王家好</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.2
+董继承</t>
         </is>
       </c>
     </row>
@@ -713,31 +767,37 @@
       <c r="A10" t="inlineStr">
         <is>
           <t>7.2
-魏延奇</t>
+魏祥展</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>7.2
-王志祥</t>
+刘一晨</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
           <t>7.2
-刘志坚</t>
+崔盛轩</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
           <t>7.2
-国文</t>
+李轩轩</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
           <t>7.2
-吴洪伟</t>
+刘存官</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.2
+刘福昊</t>
         </is>
       </c>
     </row>
@@ -745,31 +805,37 @@
       <c r="A11" t="inlineStr">
         <is>
           <t>7.2
-谢记川</t>
+肖浩浩</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>7.2
-卜令淼</t>
+于维闯</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
           <t>7.2
-王家好</t>
+庞中原</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
           <t>7.2
-董继承</t>
+胡汝勋</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
           <t>7.2
-魏祥展</t>
+解庆鸿</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.2
+刘维涵</t>
         </is>
       </c>
     </row>
@@ -777,31 +843,37 @@
       <c r="A12" t="inlineStr">
         <is>
           <t>7.2
-刘一晨</t>
+王萱</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>7.2
-崔盛轩</t>
+王子诺</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
           <t>7.2
-李轩轩</t>
+魏丽莹</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
           <t>7.2
-刘存官</t>
+魏书芸</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
           <t>7.2
-刘福昊</t>
+解瑞蕊</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.2
+魏丛丛</t>
         </is>
       </c>
     </row>
@@ -809,31 +881,37 @@
       <c r="A13" t="inlineStr">
         <is>
           <t>7.2
-肖浩浩</t>
+王倩倩</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>7.2
-于维闯</t>
+王好</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
           <t>7.2
-庞中原</t>
+解淑蝶</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
           <t>7.2
-胡汝勋</t>
+刘舒雅</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
           <t>7.2
-解庆鸿</t>
+赵霜</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.2
+刘丛</t>
         </is>
       </c>
     </row>
@@ -841,95 +919,113 @@
       <c r="A14" t="inlineStr">
         <is>
           <t>7.2
-刘维涵</t>
+葛玉爽</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>7.2
-王萱</t>
+          <t>7.3
+任奥祺</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>7.2
-王子诺</t>
+          <t>7.3
+王文学</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>7.2
-魏丽莹</t>
+          <t>7.3
+王云虎</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>7.2
-魏书芸</t>
+          <t>7.3
+王森</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.3
+王天佑</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>7.2
-解瑞蕊</t>
+          <t>7.3
+尹义坤</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>7.2
-魏丛丛</t>
+          <t>7.3
+杨其鑫</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>7.2
-王倩倩</t>
+          <t>7.3
+朱文博</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>7.2
-王好</t>
+          <t>7.3
+孙言钦</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>7.2
-解淑蝶</t>
+          <t>7.3
+魏璇</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.3
+王冠杰</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>7.2
-刘舒雅</t>
+          <t>7.3
+张景阳</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>7.2
-赵霜</t>
+          <t>7.3
+张文浩</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>7.2
-刘丛</t>
+          <t>7.3
+刘硕</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>7.2
-葛玉爽</t>
+          <t>7.3
+解羽翔</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
           <t>7.3
-任奥祺</t>
+王同锐</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.3
+解世浩</t>
         </is>
       </c>
     </row>
@@ -937,31 +1033,37 @@
       <c r="A17" t="inlineStr">
         <is>
           <t>7.3
-王文学</t>
+解瑞智</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>7.3
-王云虎</t>
+张晓灿</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
           <t>7.3
-王森</t>
+王华越</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
           <t>7.3
-王天佑</t>
+邓衍俊</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
           <t>7.3
-尹义坤</t>
+吴怀宁</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.3
+刘义傲</t>
         </is>
       </c>
     </row>
@@ -969,31 +1071,37 @@
       <c r="A18" t="inlineStr">
         <is>
           <t>7.3
-杨其鑫</t>
+解来奥</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>7.3
-朱文博</t>
+卜海珊</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
           <t>7.3
-孙言钦</t>
+庞博文</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
           <t>7.3
-魏璇</t>
+韩广耀</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
           <t>7.3
-王冠杰</t>
+王祥兆</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.3
+王耀稳</t>
         </is>
       </c>
     </row>
@@ -1001,31 +1109,37 @@
       <c r="A19" t="inlineStr">
         <is>
           <t>7.3
-张景阳</t>
+卜德旭</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>7.3
-张文浩</t>
+孙逸乐</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
           <t>7.3
-刘硕</t>
+王丽君</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
           <t>7.3
-解羽翔</t>
+梁子涵</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
           <t>7.3
-王同锐</t>
+任雨涵</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.3
+王梦娇</t>
         </is>
       </c>
     </row>
@@ -1033,31 +1147,37 @@
       <c r="A20" t="inlineStr">
         <is>
           <t>7.3
-解世浩</t>
+王紫茉</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>7.3
-解瑞智</t>
+常淑晴</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
           <t>7.3
-张晓灿</t>
+褚舒亭</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
           <t>7.3
-王华越</t>
+伍佳琦</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
           <t>7.3
-邓衍俊</t>
+高奥宇</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.3
+吕静焱</t>
         </is>
       </c>
     </row>
@@ -1065,31 +1185,37 @@
       <c r="A21" t="inlineStr">
         <is>
           <t>7.3
-吴怀宁</t>
+吕明薇</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>7.3
-刘义傲</t>
+庞洁</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
           <t>7.3
-解来奥</t>
+于茜</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
           <t>7.3
-卜海珊</t>
+周梦如</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
           <t>7.3
-庞博文</t>
+于梦</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.3
+魏好</t>
         </is>
       </c>
     </row>
@@ -1097,191 +1223,227 @@
       <c r="A22" t="inlineStr">
         <is>
           <t>7.3
-韩广耀</t>
+解婧雯</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>7.3
-王祥兆</t>
+王佳琦</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
           <t>7.3
-王耀稳</t>
+刘梦瑶</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
           <t>7.3
-卜德旭</t>
+张梦</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
           <t>7.3
-孙逸乐</t>
+解梦珍</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.3
+李曼</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>7.3
-王丽君</t>
+          <t>7.4
+张奥</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>7.3
-梁子涵</t>
+          <t>7.4
+伍昌鲁</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>7.3
-任雨涵</t>
+          <t>7.4
+褚福旭</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>7.3
-王梦娇</t>
+          <t>7.4
+王伟宁</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>7.3
-王紫茉</t>
+          <t>7.4
+王祥博</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7.4
+孙伟泽</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>7.3
-常淑晴</t>
+          <t>7.4
+甄远泽</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>7.3
-褚舒亭</t>
+          <t>7.4
+褚福畅</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>7.3
-伍佳琦</t>
+          <t>7.4
+张敬栋</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>7.3
-高奥宇</t>
+          <t>7.4
+姚树俊</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>7.3
-吕静焱</t>
+          <t>7.4
+刘国强</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7.4
+崔维晗</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>7.3
-吕明薇</t>
+          <t>7.4
+王同铎</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>7.3
-庞洁</t>
+          <t>7.4
+吴保旭</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>7.3
-于茜</t>
+          <t>7.4
+陶庆雨</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>7.3
-周梦如</t>
+          <t>7.4
+肖存磊</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>7.3
-于梦</t>
+          <t>7.4
+杨贵华</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7.4
+孙文哲</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>7.3
-魏好</t>
+          <t>7.4
+卜奥祥</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>7.3
-解婧雯</t>
+          <t>7.4
+卜佳旺</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>7.3
-王佳琦</t>
+          <t>7.4
+王满</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>7.3
-刘梦瑶</t>
+          <t>7.4
+常润洋</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>7.3
-张梦</t>
+          <t>7.4
+王可茹</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7.4
+徐舒畅</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>7.3
-解梦珍</t>
+          <t>7.4
+吴玉蝶</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>7.3
-李曼</t>
+          <t>7.4
+任雨潇</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
           <t>7.4
-张奥</t>
+梁文杰</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
           <t>7.4
-伍昌鲁</t>
+张淑亚</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
           <t>7.4
-褚福旭</t>
+王文腾</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7.4
+王满满</t>
         </is>
       </c>
     </row>
@@ -1289,31 +1451,37 @@
       <c r="A28" t="inlineStr">
         <is>
           <t>7.4
-王伟宁</t>
+魏淑雨</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>7.4
-王祥博</t>
+吴雯雯</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
           <t>7.4
-孙伟泽</t>
+吴佳音</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
           <t>7.4
-甄远泽</t>
+杨若彤</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
           <t>7.4
-褚福畅</t>
+王茹萱</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7.4
+梁亚迪</t>
         </is>
       </c>
     </row>
@@ -1321,1729 +1489,1539 @@
       <c r="A29" t="inlineStr">
         <is>
           <t>7.4
-张敬栋</t>
+姜淑涵</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>7.4
-姚树俊</t>
+魏蕊蕊</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
           <t>7.4
-刘国强</t>
+蔡冰冰</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
           <t>7.4
-崔维晗</t>
+张佳宣</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>7.4
-王同铎</t>
+          <t>7.5
+左康震</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7.5
+伍广阔</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>7.4
-吴保旭</t>
+          <t>7.5
+魏演勇</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>7.4
-陶庆雨</t>
+          <t>7.5
+王斌</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>7.4
-肖存磊</t>
+          <t>7.5
+刘嘉旭</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>7.4
-杨贵华</t>
+          <t>7.5
+魏祥文</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>7.4
-孙文哲</t>
+          <t>7.5
+董照鲁</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7.5
+吴怀玉</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>7.4
-卜奥祥</t>
+          <t>7.5
+吴家乐</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>7.4
-卜佳旺</t>
+          <t>7.5
+张宗哲</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>7.4
-王满</t>
+          <t>7.5
+解振豪</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>7.4
-常润洋</t>
+          <t>7.5
+肖露轩</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>7.4
-王可茹</t>
+          <t>7.5
+宋庆运</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>7.5
+任俊尧</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>7.4
-徐舒畅</t>
+          <t>7.5
+解志恒</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>7.4
-吴玉蝶</t>
+          <t>7.5
+解永康</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>7.4
-任雨潇</t>
+          <t>7.5
+张乾</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>7.4
-梁文杰</t>
+          <t>7.5
+刘淑梦</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>7.4
-张淑亚</t>
+          <t>7.5
+解婉琬</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>7.5
+杨明真</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>7.4
-王文腾</t>
+          <t>7.5
+王悦</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>7.4
-王满满</t>
+          <t>7.5
+伍梦菲</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>7.4
-魏淑雨</t>
+          <t>7.5
+任安然</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>7.4
-吴雯雯</t>
+          <t>7.5
+刘苏颖</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>7.4
-吴佳音</t>
+          <t>7.5
+闫盈盈</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>7.5
+闫洪霖</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>7.4
-杨若彤</t>
+          <t>7.5
+邢丹丹</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>7.4
-王茹萱</t>
+          <t>7.5
+刘一诺</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>7.4
-梁亚迪</t>
+          <t>7.5
+肖梦梦</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>7.4
-姜淑涵</t>
+          <t>7.5
+肖瑞丽</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>7.4
-魏蕊蕊</t>
+          <t>7.5
+解依然</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>7.5
+崔玉娇</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>7.4
-蔡冰冰</t>
+          <t>7.6
+解多娇</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>7.4
-张佳宣</t>
+          <t>7.6
+任智颖</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>7.5
-左康震</t>
+          <t>7.6
+任梓涵</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>7.5
-伍广阔</t>
+          <t>7.6
+孙文峥</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>7.5
-魏演勇</t>
+          <t>7.6
+曹培豪</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>7.6
+王宏烁</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>7.5
-王斌</t>
+          <t>7.6
+王利翔</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>7.5
-刘嘉旭</t>
+          <t>7.6
+王坦</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>7.5
-魏祥文</t>
+          <t>7.6
+王文多</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>7.5
-董照鲁</t>
+          <t>7.6
+王聿博</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>7.5
-吴怀玉</t>
+          <t>7.6
+姚元辉</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>7.6
+周长奥</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>7.5
-吴家乐</t>
+          <t>7.6
+卜令宵</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>7.5
-张宗哲</t>
+          <t>7.6
+解庆畅</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>7.5
-解振豪</t>
+          <t>7.6
+刘培熙</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>7.5
-肖露轩</t>
+          <t>7.6
+肖奥前</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>7.5
-宋庆运</t>
+          <t>7.6
+许皓冉</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7.6
+闫京</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>7.5
-任俊尧</t>
+          <t>7.6
+杨红利</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>7.5
-解志恒</t>
+          <t>7.6
+周长耀</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>7.5
-解永康</t>
+          <t>7.6
+张玉承</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>7.5
-张乾</t>
+          <t>7.6
+侯玉</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>7.5
-刘淑梦</t>
+          <t>7.6
+孙朝阳</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>7.6
+王丽君</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>7.5
-解婉琬</t>
+          <t>7.6
+王梦苒</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>7.5
-杨明真</t>
+          <t>7.6
+魏新童</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>7.5
-王悦</t>
+          <t>7.6
+魏羽彤</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>7.5
-伍梦菲</t>
+          <t>7.6
+周佩瑶</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>7.5
-任安然</t>
+          <t>7.6
+卜文馨</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>7.6
+付然宏</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>7.5
-刘苏颖</t>
+          <t>7.6
+刘敏</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>7.5
-闫盈盈</t>
+          <t>7.6
+刘姝娴</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>7.5
-闫洪霖</t>
+          <t>7.6
+王欣然</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>7.5
-邢丹丹</t>
+          <t>7.6
+魏子豪</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>7.5
-刘一诺</t>
+          <t>7.6
+吴洁</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>7.6
+吴雅昕</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>7.5
-肖梦梦</t>
+          <t>7.6
+吴雅昕</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>7.5
-肖瑞丽</t>
+          <t>7.6
+闫诺</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>7.5
-解依然</t>
+          <t>7.6
+解金艳</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>7.5
-崔玉娇</t>
+          <t>7.6
+解心甜</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
           <t>7.6
-解多娇</t>
+吴淑敏</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>7.7
+刘存儒</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>7.6
-任智颖</t>
+          <t>7.7
+李圣旺</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>7.6
-任梓涵</t>
+          <t>7.7
+刘朋程</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>7.6
-孙文峥</t>
+          <t>7.7
+崔宗方</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>7.6
-曹培豪</t>
+          <t>7.7
+孙振宇</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>7.6
-王宏烁</t>
+          <t>7.7
+陶子恺</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>7.7
+张宗浩</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>7.6
-王利翔</t>
+          <t>7.7
+张英泽</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>7.6
-王坦</t>
+          <t>7.7
+魏衍闯</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>7.6
-王文多</t>
+          <t>7.7
+陈志航</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>7.6
-王聿博</t>
+          <t>7.7
+张传骏</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>7.6
-姚元辉</t>
+          <t>7.7
+解瑞邦</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>7.7
+高山润</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>7.6
-周长奥</t>
+          <t>7.7
+王相阳</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>7.6
-卜令宵</t>
+          <t>7.7
+张敬奥</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>7.6
-解庆畅</t>
+          <t>7.7
+孙宇恒</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>7.6
-刘培熙</t>
+          <t>7.7
+陶红逵</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>7.6
-肖奥前</t>
+          <t>7.7
+刘存亮</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>7.7
+王如博</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>7.6
-许皓冉</t>
+          <t>7.7
+孙岩</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>7.6
-闫京</t>
+          <t>7.7
+梁邦旋</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>7.6
-杨红利</t>
+          <t>7.7
+付兴卓</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>7.6
-周长耀</t>
+          <t>7.7
+于润</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>7.6
-张玉承</t>
+          <t>7.7
+于伟强</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>7.7
+解来苏</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>7.6
-侯玉</t>
+          <t>7.7
+解双</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>7.6
-孙朝阳</t>
+          <t>7.7
+魏雨露</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>7.6
-王丽君</t>
+          <t>7.7
+伍紫燕</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>7.6
-王梦苒</t>
+          <t>7.7
+伍淑美</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>7.6
-魏新童</t>
+          <t>7.7
+王思彤</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>7.7
+卜淑贞</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>7.6
-魏羽彤</t>
+          <t>7.7
+姚淑娴</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>7.6
-周佩瑶</t>
+          <t>7.7
+任韩冰</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>7.6
-卜文馨</t>
+          <t>7.7
+张雨诺</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>7.6
-付然宏</t>
+          <t>7.7
+卜秋怡</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>7.6
-刘敏</t>
+          <t>7.7
+董鑫</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>7.7
+张子默</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>7.6
-刘姝娴</t>
+          <t>7.7
+刘潇潇</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>7.6
-王欣然</t>
+          <t>7.7
+褚义红</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>7.6
-魏子豪</t>
+          <t>7.7
+解梦雨</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>7.6
-吴洁</t>
+          <t>7.7
+刘一鸣</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>7.6
-吴雅昕</t>
+          <t>7.7
+董淑婷</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>7.7
+解文静</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>7.6
-吴雅昕</t>
+          <t>7.8
+吕奥文</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>7.6
-闫诺</t>
+          <t>7.8
+王鹏</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>7.6
-解金艳</t>
+          <t>7.8
+李政</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>7.6
-解心甜</t>
+          <t>7.8
+魏言庚</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>7.6
-吴淑敏</t>
+          <t>7.8
+于泽辰</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>7.8
+张祥淳</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>7.7
-刘存儒</t>
+          <t>7.8
+张超艺</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>7.7
-李圣旺</t>
+          <t>7.8
+张安坤</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>7.7
-刘朋程</t>
+          <t>7.8
+解瑞壮</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>7.7
-崔宗方</t>
+          <t>7.8
+杨成乐</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>7.7
-孙振宇</t>
+          <t>7.8
+任庆鹏</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>7.8
+吴轩轩</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>7.7
-陶子恺</t>
+          <t>7.8
+刘存栋</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>7.7
-张宗浩</t>
+          <t>7.8
+任世翔</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>7.7
-张英泽</t>
+          <t>7.8
+王云豹</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>7.7
-魏衍闯</t>
+          <t>7.8
+庞景发</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>7.7
-陈志航</t>
+          <t>7.8
+吴家旺</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>7.8
+王庆元</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>7.7
-张传骏</t>
+          <t>7.8
+王慧超</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>7.7
-解瑞邦</t>
+          <t>7.8
+任琦龙</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>7.7
-高山润</t>
+          <t>7.8
+魏轩奥</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>7.7
-王相阳</t>
+          <t>7.8
+李明熙</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>7.7
-张敬奥</t>
+          <t>7.8
+王吉端</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>7.8
+刘正</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>7.7
-孙宇恒</t>
+          <t>7.8
+刘士卓</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>7.7
-陶红逵</t>
+          <t>7.8
+魏树涛</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>7.7
-刘存亮</t>
+          <t>7.8
+田雨孟</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>7.7
-王如博</t>
+          <t>7.8
+马灿</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>7.7
-孙岩</t>
+          <t>7.8
+侯玉娇</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>7.8
+伍丽颖</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>7.7
-梁邦旋</t>
+          <t>7.8
+朱雨晗</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>7.7
-付兴卓</t>
+          <t>7.8
+吴红晨</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>7.7
-于润</t>
+          <t>7.8
+褚淑慧</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>7.7
-于伟强</t>
+          <t>7.8
+刘垚</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>7.7
-解来苏</t>
+          <t>7.8
+吴璐屹</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>7.8
+刘梦微</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>7.7
-解双</t>
+          <t>7.8
+孙悦</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>7.7
-魏雨露</t>
+          <t>7.8
+王翠迪</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>7.7
-伍紫燕</t>
+          <t>7.8
+伍梓轩</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>7.7
-伍淑美</t>
+          <t>7.8
+张子涵</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>7.7
-王思彤</t>
+          <t>7.8
+魏一曼</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>7.8
+张一诺</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>7.7
-卜淑贞</t>
+          <t>7.8
+魏涵梦</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>7.7
-姚淑娴</t>
+          <t>7.8
+邢若菲</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>7.7
-任韩冰</t>
+          <t>7.8
+魏鲁</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>7.7
-张雨诺</t>
+          <t>7.8
+伍静涵</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>7.7
-卜秋怡</t>
+          <t>7.8
+解雨菲</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>7.9
+卜祥士</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>7.7
-董鑫</t>
+          <t>7.9
+任庆崭</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>7.7
-张子默</t>
+          <t>7.9
+刘伟向</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>7.7
-刘潇潇</t>
+          <t>7.9
+陶红毅</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>7.7
-褚义红</t>
+          <t>7.9
+卜维奥</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>7.7
-解梦雨</t>
+          <t>7.9
+王轩</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>7.9
+王志奥</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>7.7
-刘一鸣</t>
+          <t>7.9
+公祥浩</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>7.7
-董淑婷</t>
+          <t>7.9
+王子晨</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>7.7
-解文静</t>
+          <t>7.9
+王贤俊</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>7.8
-吕奥文</t>
+          <t>7.9
+伍广恒</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>7.8
-王鹏</t>
+          <t>7.9
+刘存耀</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>7.9
+王俊友</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>7.8
-李政</t>
+          <t>7.9
+王文博</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>7.8
-魏言庚</t>
+          <t>7.9
+张晓雷</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>7.8
-于泽辰</t>
+          <t>7.9
+解庆硕</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>7.8
-张祥淳</t>
+          <t>7.9
+褚乾通</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>7.8
-张超艺</t>
+          <t>7.9
+魏祥瑞</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>7.9
+邓延阔</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>7.8
-张安坤</t>
+          <t>7.9
+邢绪泽</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>7.8
-解瑞壮</t>
+          <t>7.9
+解瑞博</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>7.8
-杨成乐</t>
+          <t>7.9
+梁邦测</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>7.8
-任庆鹏</t>
+          <t>7.9
+解雨泽</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>7.8
-吴轩轩</t>
+          <t>7.9
+魏佳佳</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>7.9
+刘馨</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>7.8
-刘存栋</t>
+          <t>7.9
+王梦颖</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>7.8
-任世翔</t>
+          <t>7.9
+解淑涵</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>7.8
-王云豹</t>
+          <t>7.9
+李琪</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>7.8
-庞景发</t>
+          <t>7.9
+王亚楠</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>7.8
-吴家旺</t>
+          <t>7.9
+孙梦珠</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>7.9
+董玉茹</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>7.8
-王庆元</t>
+          <t>7.9
+王淑冉</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>7.8
-王慧超</t>
+          <t>7.9
+解娜</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>7.8
-任琦龙</t>
+          <t>7.9
+刘依容</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>7.8
-魏轩奥</t>
+          <t>7.9
+高文静</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>7.8
-李明熙</t>
+          <t>7.10
+王建</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>7.10
+王正阳</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>7.8
-王吉端</t>
+          <t>7.10
+魏祥瑞</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>7.8
-刘正</t>
+          <t>7.10
+任俊卿</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>7.8
-刘士卓</t>
+          <t>7.10
+王世奥</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>7.8
-魏树涛</t>
+          <t>7.10
+张祥满</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>7.8
-田雨孟</t>
+          <t>7.10
+王坤鹏</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>7.10
+张祥光</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>7.8
-马灿</t>
+          <t>7.10
+张宗稳</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>7.8
-侯玉娇</t>
+          <t>7.10
+魏衍昭</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>7.8
-伍丽颖</t>
+          <t>7.10
+任文泽</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>7.8
-朱雨晗</t>
+          <t>7.10
+周飞飞</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>7.8
-吴红晨</t>
+          <t>7.10
+周赛</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>7.10
+刘利</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>7.8
-褚淑慧</t>
+          <t>7.10
+马悦腾</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>7.8
-刘垚</t>
+          <t>7.10
+王俊杰</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>7.8
-吴璐屹</t>
+          <t>7.10
+王通</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>7.8
-刘梦微</t>
+          <t>7.10
+吴红奔</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>7.8
-孙悦</t>
+          <t>7.10
+刘新增</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>7.10
+魏衍威</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>7.8
-王翠迪</t>
+          <t>7.10
+刘宇泽</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>7.8
-伍梓轩</t>
+          <t>7.10
+解浩轩</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>7.8
-张子涵</t>
+          <t>7.10
+于笑</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>7.8
-魏一曼</t>
+          <t>7.10
+刘亚茜</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>7.8
-张一诺</t>
+          <t>7.10
+任梦晴</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>7.10
+王芸杰</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>7.8
-魏涵梦</t>
+          <t>7.10
+刘舒含</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>7.8
-邢若菲</t>
+          <t>7.10
+常书慧</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>7.8
-魏鲁</t>
+          <t>7.10
+王语熙</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>7.8
-伍静涵</t>
+          <t>7.10
+王珂馨</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>7.8
-解雨菲</t>
+          <t>7.10
+王亚楠</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>7.10
+朱颖颖</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>7.9
-卜祥士</t>
+          <t>7.10
+刘敏</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>7.9
-任庆崭</t>
+          <t>7.10
+贾相阳</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>7.9
-刘伟向</t>
+          <t>7.10
+魏淑美</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>7.9
-陶红毅</t>
+          <t>7.10
+闫紫绚</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>7.9
-卜维奥</t>
+          <t>7.10
+卜茜蕊</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>7.10
+解欣悦</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>7.9
-王轩</t>
+          <t>7.10
+马跃</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>7.9
-王志奥</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>7.9
-公祥浩</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>7.9
-王子晨</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>7.9
-王贤俊</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>7.9
-伍广恒</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>7.9
-刘存耀</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>7.9
-王俊友</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>7.9
-王文博</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>7.9
-张晓雷</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>7.9
-解庆硕</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>7.9
-褚乾通</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>7.9
-魏祥瑞</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>7.9
-邓延阔</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>7.9
-邢绪泽</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>7.9
-解瑞博</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>7.9
-梁邦测</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>7.9
-解雨泽</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>7.9
-魏佳佳</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>7.9
-刘馨</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>7.9
-王梦颖</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>7.9
-解淑涵</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>7.9
-李琪</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>7.9
-王亚楠</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>7.9
-孙梦珠</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>7.9
-董玉茹</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>7.9
-王淑冉</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>7.9
-解娜</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>7.9
-刘依容</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>7.9
-高文静</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>7.10
-王建</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>7.10
-王正阳</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>7.10
-魏祥瑞</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>7.10
-任俊卿</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>7.10
-王世奥</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>7.10
-张祥满</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>7.10
-王坤鹏</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>7.10
-张祥光</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>7.10
-张宗稳</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>7.10
-魏衍昭</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>7.10
-任文泽</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>7.10
-周飞飞</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>7.10
-周赛</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>7.10
-刘利</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>7.10
-马悦腾</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>7.10
-王俊杰</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>7.10
-王通</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>7.10
-吴红奔</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>7.10
-刘新增</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>7.10
-魏衍威</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>7.10
-刘宇泽</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>7.10
-解浩轩</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>7.10
-于笑</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>7.10
-刘亚茜</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>7.10
-任梦晴</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>7.10
-王芸杰</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>7.10
-刘舒含</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>7.10
-常书慧</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>7.10
-王语熙</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>7.10
-王珂馨</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>7.10
-王亚楠</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>7.10
-朱颖颖</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>7.10
-刘敏</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>7.10
-贾相阳</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>7.10
-魏淑美</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>7.10
-闫紫绚</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>7.10
-卜茜蕊</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>7.10
-解欣悦</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>7.10
-马跃</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
           <t>7.10
 解淑颖</t>
         </is>
       </c>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/output.xlsx
+++ b/output.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F69"/>
+  <dimension ref="A1:G59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,42 +458,54 @@
 魏亦聪</t>
         </is>
       </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>7.1
+庞祎祥</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
           <t>7.1
-庞祎祥</t>
+赵研</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
           <t>7.1
-赵研</t>
+王金科</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
           <t>7.1
-王金科</t>
+魏志奥</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
           <t>7.1
-魏志奥</t>
+解典典</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>7.1
-解典典</t>
+解庆诺</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
           <t>7.1
-解庆诺</t>
+肖逸</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.1
+任传勋</t>
         </is>
       </c>
     </row>
@@ -501,37 +513,43 @@
       <c r="A3" t="inlineStr">
         <is>
           <t>7.1
-肖逸</t>
+崔胜奥</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>7.1
-任传勋</t>
+李志阳</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
           <t>7.1
-崔胜奥</t>
+谢庆腾</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
           <t>7.1
-李志阳</t>
+张猛</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>7.1
-谢庆腾</t>
+周宝麒</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
           <t>7.1
-张猛</t>
+乔知博</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>7.1
+孙夏</t>
         </is>
       </c>
     </row>
@@ -539,37 +557,43 @@
       <c r="A4" t="inlineStr">
         <is>
           <t>7.1
-周宝麒</t>
+王雨涵</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>7.1
-乔知博</t>
+伍雨晨</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
           <t>7.1
-孙夏</t>
+伍梦娇</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
           <t>7.1
-王雨涵</t>
+孙淑洁</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>7.1
-伍雨晨</t>
+王甜甜</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
           <t>7.1
-伍梦娇</t>
+王娜娜</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>7.1
+王奥爽</t>
         </is>
       </c>
     </row>
@@ -577,37 +601,43 @@
       <c r="A5" t="inlineStr">
         <is>
           <t>7.1
-孙淑洁</t>
+王雨萌</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>7.1
-王甜甜</t>
+王笑</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
           <t>7.1
-王娜娜</t>
+张舒悦</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
           <t>7.1
-王奥爽</t>
+王迎娣</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>7.1
-王雨萌</t>
+王傲雪</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
           <t>7.1
-王笑</t>
+任文悦</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>7.1
+伍倩</t>
         </is>
       </c>
     </row>
@@ -615,75 +645,87 @@
       <c r="A6" t="inlineStr">
         <is>
           <t>7.1
-张舒悦</t>
+高诺</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>7.1
-王迎娣</t>
+肖文迪</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
           <t>7.1
-王傲雪</t>
+陈惠彤</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
           <t>7.1
-任文悦</t>
+刘静蕊</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>7.1
-伍倩</t>
+朱玉姝</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>7.1
-高诺</t>
+          <t>7.2
+刘新畅</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>7.2
+张宗贺</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>7.1
-肖文迪</t>
+          <t>7.2
+伍昌淼</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>7.1
-陈惠彤</t>
+          <t>7.2
+魏庆运</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>7.1
-刘静蕊</t>
+          <t>7.2
+王家杰</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>7.1
-朱玉姝</t>
+          <t>7.2
+魏延奇</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
           <t>7.2
-刘新畅</t>
+王志祥</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
           <t>7.2
-张宗贺</t>
+刘志坚</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>7.2
+国文</t>
         </is>
       </c>
     </row>
@@ -691,37 +733,43 @@
       <c r="A8" t="inlineStr">
         <is>
           <t>7.2
-伍昌淼</t>
+吴洪伟</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>7.2
-魏庆运</t>
+谢记川</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
           <t>7.2
-王家杰</t>
+卜令淼</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
           <t>7.2
-魏延奇</t>
+王家好</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
           <t>7.2
-王志祥</t>
+董继承</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
           <t>7.2
-刘志坚</t>
+魏祥展</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>7.2
+刘一晨</t>
         </is>
       </c>
     </row>
@@ -729,37 +777,43 @@
       <c r="A9" t="inlineStr">
         <is>
           <t>7.2
-国文</t>
+崔盛轩</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>7.2
-吴洪伟</t>
+李轩轩</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
           <t>7.2
-谢记川</t>
+刘存官</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
           <t>7.2
-卜令淼</t>
+刘福昊</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
           <t>7.2
-王家好</t>
+肖浩浩</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
           <t>7.2
-董继承</t>
+于维闯</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>7.2
+庞中原</t>
         </is>
       </c>
     </row>
@@ -767,37 +821,43 @@
       <c r="A10" t="inlineStr">
         <is>
           <t>7.2
-魏祥展</t>
+胡汝勋</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>7.2
-刘一晨</t>
+解庆鸿</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
           <t>7.2
-崔盛轩</t>
+刘维涵</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
           <t>7.2
-李轩轩</t>
+王萱</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
           <t>7.2
-刘存官</t>
+王子诺</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
           <t>7.2
-刘福昊</t>
+魏丽莹</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>7.2
+魏书芸</t>
         </is>
       </c>
     </row>
@@ -805,37 +865,43 @@
       <c r="A11" t="inlineStr">
         <is>
           <t>7.2
-肖浩浩</t>
+解瑞蕊</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>7.2
-于维闯</t>
+魏丛丛</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
           <t>7.2
-庞中原</t>
+王倩倩</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
           <t>7.2
-胡汝勋</t>
+王好</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
           <t>7.2
-解庆鸿</t>
+解淑蝶</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
           <t>7.2
-刘维涵</t>
+刘舒雅</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>7.2
+赵霜</t>
         </is>
       </c>
     </row>
@@ -843,113 +909,131 @@
       <c r="A12" t="inlineStr">
         <is>
           <t>7.2
-王萱</t>
+刘丛</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>7.2
-王子诺</t>
+葛玉爽</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>7.2
-魏丽莹</t>
+          <t>7.3
+任奥祺</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>7.2
-魏书芸</t>
+          <t>7.3
+王文学</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>7.2
-解瑞蕊</t>
+          <t>7.3
+王云虎</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>7.2
-魏丛丛</t>
+          <t>7.3
+王森</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>7.3
+王天佑</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>7.2
-王倩倩</t>
+          <t>7.3
+尹义坤</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>7.2
-王好</t>
+          <t>7.3
+杨其鑫</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>7.2
-解淑蝶</t>
+          <t>7.3
+朱文博</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>7.2
-刘舒雅</t>
+          <t>7.3
+孙言钦</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>7.2
-赵霜</t>
+          <t>7.3
+魏璇</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>7.2
-刘丛</t>
+          <t>7.3
+王冠杰</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>7.3
+张景阳</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>7.2
-葛玉爽</t>
+          <t>7.3
+张文浩</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>7.3
-任奥祺</t>
+刘硕</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
           <t>7.3
-王文学</t>
+解羽翔</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
           <t>7.3
-王云虎</t>
+王同锐</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
           <t>7.3
-王森</t>
+解世浩</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
           <t>7.3
-王天佑</t>
+解瑞智</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>7.3
+张晓灿</t>
         </is>
       </c>
     </row>
@@ -957,37 +1041,43 @@
       <c r="A15" t="inlineStr">
         <is>
           <t>7.3
-尹义坤</t>
+王华越</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>7.3
-杨其鑫</t>
+邓衍俊</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
           <t>7.3
-朱文博</t>
+吴怀宁</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
           <t>7.3
-孙言钦</t>
+刘义傲</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
           <t>7.3
-魏璇</t>
+解来奥</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
           <t>7.3
-王冠杰</t>
+卜海珊</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>7.3
+庞博文</t>
         </is>
       </c>
     </row>
@@ -995,37 +1085,43 @@
       <c r="A16" t="inlineStr">
         <is>
           <t>7.3
-张景阳</t>
+韩广耀</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>7.3
-张文浩</t>
+王祥兆</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
           <t>7.3
-刘硕</t>
+王耀稳</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
           <t>7.3
-解羽翔</t>
+卜德旭</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
           <t>7.3
-王同锐</t>
+孙逸乐</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
           <t>7.3
-解世浩</t>
+王丽君</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>7.3
+梁子涵</t>
         </is>
       </c>
     </row>
@@ -1033,37 +1129,43 @@
       <c r="A17" t="inlineStr">
         <is>
           <t>7.3
-解瑞智</t>
+任雨涵</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>7.3
-张晓灿</t>
+王梦娇</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
           <t>7.3
-王华越</t>
+王紫茉</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
           <t>7.3
-邓衍俊</t>
+常淑晴</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
           <t>7.3
-吴怀宁</t>
+褚舒亭</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
           <t>7.3
-刘义傲</t>
+伍佳琦</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>7.3
+高奥宇</t>
         </is>
       </c>
     </row>
@@ -1071,37 +1173,43 @@
       <c r="A18" t="inlineStr">
         <is>
           <t>7.3
-解来奥</t>
+吕静焱</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>7.3
-卜海珊</t>
+吕明薇</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
           <t>7.3
-庞博文</t>
+庞洁</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
           <t>7.3
-韩广耀</t>
+于茜</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
           <t>7.3
-王祥兆</t>
+周梦如</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
           <t>7.3
-王耀稳</t>
+于梦</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>7.3
+魏好</t>
         </is>
       </c>
     </row>
@@ -1109,151 +1217,175 @@
       <c r="A19" t="inlineStr">
         <is>
           <t>7.3
-卜德旭</t>
+解婧雯</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>7.3
-孙逸乐</t>
+王佳琦</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
           <t>7.3
-王丽君</t>
+刘梦瑶</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
           <t>7.3
-梁子涵</t>
+张梦</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
           <t>7.3
-任雨涵</t>
+解梦珍</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
           <t>7.3
-王梦娇</t>
+李曼</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>7.4
+张奥</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>7.3
-王紫茉</t>
+          <t>7.4
+伍昌鲁</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>7.3
-常淑晴</t>
+          <t>7.4
+褚福旭</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>7.3
-褚舒亭</t>
+          <t>7.4
+王伟宁</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>7.3
-伍佳琦</t>
+          <t>7.4
+王祥博</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>7.3
-高奥宇</t>
+          <t>7.4
+孙伟泽</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>7.3
-吕静焱</t>
+          <t>7.4
+甄远泽</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>7.4
+褚福畅</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>7.3
-吕明薇</t>
+          <t>7.4
+张敬栋</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>7.3
-庞洁</t>
+          <t>7.4
+姚树俊</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>7.3
-于茜</t>
+          <t>7.4
+刘国强</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>7.3
-周梦如</t>
+          <t>7.4
+崔维晗</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>7.3
-于梦</t>
+          <t>7.4
+王同铎</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>7.3
-魏好</t>
+          <t>7.4
+吴保旭</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>7.4
+陶庆雨</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>7.3
-解婧雯</t>
+          <t>7.4
+肖存磊</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>7.3
-王佳琦</t>
+          <t>7.4
+杨贵华</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>7.3
-刘梦瑶</t>
+          <t>7.4
+孙文哲</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>7.3
-张梦</t>
+          <t>7.4
+卜奥祥</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>7.3
-解梦珍</t>
+          <t>7.4
+卜佳旺</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>7.3
-李曼</t>
+          <t>7.4
+王满</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>7.4
+常润洋</t>
         </is>
       </c>
     </row>
@@ -1261,37 +1393,43 @@
       <c r="A23" t="inlineStr">
         <is>
           <t>7.4
-张奥</t>
+王可茹</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>7.4
-伍昌鲁</t>
+徐舒畅</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
           <t>7.4
-褚福旭</t>
+吴玉蝶</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
           <t>7.4
-王伟宁</t>
+任雨潇</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
           <t>7.4
-王祥博</t>
+梁文杰</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
           <t>7.4
-孙伟泽</t>
+张淑亚</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>7.4
+王文腾</t>
         </is>
       </c>
     </row>
@@ -1299,37 +1437,43 @@
       <c r="A24" t="inlineStr">
         <is>
           <t>7.4
-甄远泽</t>
+王满满</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>7.4
-褚福畅</t>
+魏淑雨</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
           <t>7.4
-张敬栋</t>
+吴雯雯</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
           <t>7.4
-姚树俊</t>
+吴佳音</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
           <t>7.4
-刘国强</t>
+杨若彤</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
           <t>7.4
-崔维晗</t>
+王茹萱</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>7.4
+梁亚迪</t>
         </is>
       </c>
     </row>
@@ -1337,189 +1481,219 @@
       <c r="A25" t="inlineStr">
         <is>
           <t>7.4
-王同铎</t>
+姜淑涵</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>7.4
-吴保旭</t>
+魏蕊蕊</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
           <t>7.4
-陶庆雨</t>
+蔡冰冰</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
           <t>7.4
-肖存磊</t>
+张佳宣</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>7.4
-杨贵华</t>
+          <t>7.5
+左康震</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>7.4
-孙文哲</t>
+          <t>7.5
+伍广阔</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>7.5
+魏演勇</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>7.4
-卜奥祥</t>
+          <t>7.5
+王斌</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>7.4
-卜佳旺</t>
+          <t>7.5
+刘嘉旭</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>7.4
-王满</t>
+          <t>7.5
+魏祥文</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>7.4
-常润洋</t>
+          <t>7.5
+董照鲁</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>7.4
-王可茹</t>
+          <t>7.5
+吴怀玉</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>7.4
-徐舒畅</t>
+          <t>7.5
+吴家乐</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>7.5
+张宗哲</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>7.4
-吴玉蝶</t>
+          <t>7.5
+解振豪</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>7.4
-任雨潇</t>
+          <t>7.5
+肖露轩</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>7.4
-梁文杰</t>
+          <t>7.5
+宋庆运</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>7.4
-张淑亚</t>
+          <t>7.5
+任俊尧</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>7.4
-王文腾</t>
+          <t>7.5
+解志恒</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>7.4
-王满满</t>
+          <t>7.5
+解永康</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>7.5
+张乾</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>7.4
-魏淑雨</t>
+          <t>7.5
+刘淑梦</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>7.4
-吴雯雯</t>
+          <t>7.5
+解婉琬</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>7.4
-吴佳音</t>
+          <t>7.5
+杨明真</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>7.4
-杨若彤</t>
+          <t>7.5
+王悦</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>7.4
-王茹萱</t>
+          <t>7.5
+伍梦菲</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>7.4
-梁亚迪</t>
+          <t>7.5
+任安然</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>7.5
+刘苏颖</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>7.4
-姜淑涵</t>
+          <t>7.5
+闫盈盈</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>7.4
-魏蕊蕊</t>
+          <t>7.5
+闫洪霖</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>7.4
-蔡冰冰</t>
+          <t>7.5
+邢丹丹</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>7.4
-张佳宣</t>
+          <t>7.5
+刘一诺</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
           <t>7.5
-左康震</t>
+肖梦梦</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
           <t>7.5
-伍广阔</t>
+肖瑞丽</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>7.5
+解依然</t>
         </is>
       </c>
     </row>
@@ -1527,189 +1701,219 @@
       <c r="A30" t="inlineStr">
         <is>
           <t>7.5
-魏演勇</t>
+崔玉娇</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>7.5
-王斌</t>
+          <t>7.6
+解多娇</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>7.5
-刘嘉旭</t>
+          <t>7.6
+任智颖</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>7.5
-魏祥文</t>
+          <t>7.6
+任梓涵</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>7.5
-董照鲁</t>
+          <t>7.6
+孙文峥</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>7.5
-吴怀玉</t>
+          <t>7.6
+曹培豪</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>7.6
+王宏烁</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>7.5
-吴家乐</t>
+          <t>7.6
+王利翔</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>7.5
-张宗哲</t>
+          <t>7.6
+王坦</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>7.5
-解振豪</t>
+          <t>7.6
+王文多</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>7.5
-肖露轩</t>
+          <t>7.6
+王聿博</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>7.5
-宋庆运</t>
+          <t>7.6
+姚元辉</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>7.5
-任俊尧</t>
+          <t>7.6
+周长奥</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>7.6
+卜令宵</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>7.5
-解志恒</t>
+          <t>7.6
+解庆畅</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>7.5
-解永康</t>
+          <t>7.6
+刘培熙</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>7.5
-张乾</t>
+          <t>7.6
+肖奥前</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>7.5
-刘淑梦</t>
+          <t>7.6
+许皓冉</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>7.5
-解婉琬</t>
+          <t>7.6
+闫京</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>7.5
-杨明真</t>
+          <t>7.6
+杨红利</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>7.6
+周长耀</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>7.5
-王悦</t>
+          <t>7.6
+张玉承</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>7.5
-伍梦菲</t>
+          <t>7.6
+侯玉</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>7.5
-任安然</t>
+          <t>7.6
+孙朝阳</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>7.5
-刘苏颖</t>
+          <t>7.6
+王丽君</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>7.5
-闫盈盈</t>
+          <t>7.6
+王梦苒</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>7.5
-闫洪霖</t>
+          <t>7.6
+魏新童</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>7.6
+魏羽彤</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>7.5
-邢丹丹</t>
+          <t>7.6
+周佩瑶</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>7.5
-刘一诺</t>
+          <t>7.6
+卜文馨</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>7.5
-肖梦梦</t>
+          <t>7.6
+付然宏</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>7.5
-肖瑞丽</t>
+          <t>7.6
+刘敏</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>7.5
-解依然</t>
+          <t>7.6
+刘姝娴</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>7.5
-崔玉娇</t>
+          <t>7.6
+王欣然</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>7.6
+魏子豪</t>
         </is>
       </c>
     </row>
@@ -1717,265 +1921,307 @@
       <c r="A35" t="inlineStr">
         <is>
           <t>7.6
-解多娇</t>
+吴洁</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>7.6
-任智颖</t>
+吴雅昕</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
           <t>7.6
-任梓涵</t>
+吴雅昕</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
           <t>7.6
-孙文峥</t>
+闫诺</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
           <t>7.6
-曹培豪</t>
+解金艳</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
           <t>7.6
-王宏烁</t>
+解心甜</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>7.6
+吴淑敏</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>7.6
-王利翔</t>
+          <t>7.7
+刘存儒</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>7.6
-王坦</t>
+          <t>7.7
+李圣旺</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>7.6
-王文多</t>
+          <t>7.7
+刘朋程</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>7.6
-王聿博</t>
+          <t>7.7
+崔宗方</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>7.6
-姚元辉</t>
+          <t>7.7
+孙振宇</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>7.6
-周长奥</t>
+          <t>7.7
+陶子恺</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>7.7
+张宗浩</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>7.6
-卜令宵</t>
+          <t>7.7
+张英泽</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>7.6
-解庆畅</t>
+          <t>7.7
+魏衍闯</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>7.6
-刘培熙</t>
+          <t>7.7
+陈志航</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>7.6
-肖奥前</t>
+          <t>7.7
+张传骏</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>7.6
-许皓冉</t>
+          <t>7.7
+解瑞邦</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>7.6
-闫京</t>
+          <t>7.7
+高山润</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>7.7
+王相阳</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>7.6
-杨红利</t>
+          <t>7.7
+张敬奥</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>7.6
-周长耀</t>
+          <t>7.7
+孙宇恒</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>7.6
-张玉承</t>
+          <t>7.7
+陶红逵</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>7.6
-侯玉</t>
+          <t>7.7
+刘存亮</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>7.6
-孙朝阳</t>
+          <t>7.7
+王如博</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>7.6
-王丽君</t>
+          <t>7.7
+孙岩</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>7.7
+梁邦旋</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>7.6
-王梦苒</t>
+          <t>7.7
+付兴卓</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>7.6
-魏新童</t>
+          <t>7.7
+于润</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>7.6
-魏羽彤</t>
+          <t>7.7
+于伟强</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>7.6
-周佩瑶</t>
+          <t>7.7
+解来苏</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>7.6
-卜文馨</t>
+          <t>7.7
+解双</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>7.6
-付然宏</t>
+          <t>7.7
+魏雨露</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>7.7
+伍紫燕</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>7.6
-刘敏</t>
+          <t>7.7
+伍淑美</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>7.6
-刘姝娴</t>
+          <t>7.7
+王思彤</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>7.6
-王欣然</t>
+          <t>7.7
+卜淑贞</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>7.6
-魏子豪</t>
+          <t>7.7
+姚淑娴</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>7.6
-吴洁</t>
+          <t>7.7
+任韩冰</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>7.6
-吴雅昕</t>
+          <t>7.7
+张雨诺</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>7.7
+卜秋怡</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>7.6
-吴雅昕</t>
+          <t>7.7
+董鑫</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>7.6
-闫诺</t>
+          <t>7.7
+张子默</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>7.6
-解金艳</t>
+          <t>7.7
+刘潇潇</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>7.6
-解心甜</t>
+          <t>7.7
+褚义红</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>7.6
-吴淑敏</t>
+          <t>7.7
+解梦雨</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
           <t>7.7
-刘存儒</t>
+刘一鸣</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>7.7
+董淑婷</t>
         </is>
       </c>
     </row>
@@ -1983,1045 +2229,778 @@
       <c r="A42" t="inlineStr">
         <is>
           <t>7.7
-李圣旺</t>
+解文静</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>7.7
-刘朋程</t>
+          <t>7.8
+吕奥文</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>7.7
-崔宗方</t>
+          <t>7.8
+王鹏</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>7.7
-孙振宇</t>
+          <t>7.8
+李政</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>7.7
-陶子恺</t>
+          <t>7.8
+魏言庚</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>7.7
-张宗浩</t>
+          <t>7.8
+于泽辰</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>7.8
+张祥淳</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>7.7
-张英泽</t>
+          <t>7.8
+张超艺</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>7.7
-魏衍闯</t>
+          <t>7.8
+张安坤</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>7.7
-陈志航</t>
+          <t>7.8
+解瑞壮</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>7.7
-张传骏</t>
+          <t>7.8
+杨成乐</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>7.7
-解瑞邦</t>
+          <t>7.8
+任庆鹏</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>7.7
-高山润</t>
+          <t>7.8
+吴轩轩</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>7.8
+刘存栋</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>7.7
-王相阳</t>
+          <t>7.8
+任世翔</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>7.7
-张敬奥</t>
+          <t>7.8
+王云豹</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>7.7
-孙宇恒</t>
+          <t>7.8
+庞景发</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>7.7
-陶红逵</t>
+          <t>7.8
+吴家旺</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>7.7
-刘存亮</t>
+          <t>7.8
+王庆元</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>7.7
-王如博</t>
+          <t>7.8
+王慧超</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>7.8
+任琦龙</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>7.7
-孙岩</t>
+          <t>7.8
+魏轩奥</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>7.7
-梁邦旋</t>
+          <t>7.8
+李明熙</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>7.7
-付兴卓</t>
+          <t>7.8
+王吉端</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>7.7
-于润</t>
+          <t>7.8
+刘正</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>7.7
-于伟强</t>
+          <t>7.8
+刘士卓</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>7.7
-解来苏</t>
+          <t>7.8
+魏树涛</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>7.8
+田雨孟</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>7.7
-解双</t>
+          <t>7.8
+马灿</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>7.7
-魏雨露</t>
+          <t>7.8
+侯玉娇</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>7.7
-伍紫燕</t>
+          <t>7.8
+伍丽颖</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>7.7
-伍淑美</t>
+          <t>7.8
+朱雨晗</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>7.7
-王思彤</t>
+          <t>7.8
+吴红晨</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>7.7
-卜淑贞</t>
+          <t>7.8
+褚淑慧</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>7.8
+刘垚</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>7.7
-姚淑娴</t>
+          <t>7.8
+吴璐屹</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>7.7
-任韩冰</t>
+          <t>7.8
+刘梦微</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>7.7
-张雨诺</t>
+          <t>7.8
+孙悦</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>7.7
-卜秋怡</t>
+          <t>7.8
+王翠迪</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>7.7
-董鑫</t>
+          <t>7.8
+伍梓轩</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>7.7
-张子默</t>
+          <t>7.8
+张子涵</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>7.8
+魏一曼</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>7.7
-刘潇潇</t>
+          <t>7.8
+张一诺</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>7.7
-褚义红</t>
+          <t>7.8
+魏涵梦</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>7.7
-解梦雨</t>
+          <t>7.8
+邢若菲</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>7.7
-刘一鸣</t>
+          <t>7.8
+魏鲁</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>7.7
-董淑婷</t>
+          <t>7.8
+伍静涵</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>7.7
-解文静</t>
+          <t>7.8
+解雨菲</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>7.9
+卜祥士</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>7.8
-吕奥文</t>
+          <t>7.9
+任庆崭</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>7.8
-王鹏</t>
+          <t>7.9
+刘伟向</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>7.8
-李政</t>
+          <t>7.9
+陶红毅</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>7.8
-魏言庚</t>
+          <t>7.9
+卜维奥</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>7.8
-于泽辰</t>
+          <t>7.9
+王轩</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>7.8
-张祥淳</t>
+          <t>7.9
+王志奥</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>7.9
+公祥浩</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>7.8
-张超艺</t>
+          <t>7.9
+王子晨</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>7.8
-张安坤</t>
+          <t>7.9
+王贤俊</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>7.8
-解瑞壮</t>
+          <t>7.9
+伍广恒</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>7.8
-杨成乐</t>
+          <t>7.9
+刘存耀</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>7.8
-任庆鹏</t>
+          <t>7.9
+王俊友</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>7.8
-吴轩轩</t>
+          <t>7.9
+王文博</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>7.9
+张晓雷</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>7.8
-刘存栋</t>
+          <t>7.9
+解庆硕</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>7.8
-任世翔</t>
+          <t>7.9
+褚乾通</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>7.8
-王云豹</t>
+          <t>7.9
+魏祥瑞</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>7.8
-庞景发</t>
+          <t>7.9
+邓延阔</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>7.8
-吴家旺</t>
+          <t>7.9
+邢绪泽</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>7.8
-王庆元</t>
+          <t>7.9
+解瑞博</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>7.9
+梁邦测</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>7.8
-王慧超</t>
+          <t>7.9
+解雨泽</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>7.8
-任琦龙</t>
+          <t>7.9
+魏佳佳</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>7.8
-魏轩奥</t>
+          <t>7.9
+刘馨</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>7.8
-李明熙</t>
+          <t>7.9
+王梦颖</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>7.8
-王吉端</t>
+          <t>7.9
+解淑涵</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>7.8
-刘正</t>
+          <t>7.9
+李琪</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>7.9
+王亚楠</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>7.8
-刘士卓</t>
+          <t>7.9
+孙梦珠</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>7.8
-魏树涛</t>
+          <t>7.9
+董玉茹</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>7.8
-田雨孟</t>
+          <t>7.9
+王淑冉</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>7.8
-马灿</t>
+          <t>7.9
+解娜</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>7.8
-侯玉娇</t>
+          <t>7.9
+刘依容</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>7.8
-伍丽颖</t>
+          <t>7.9
+高文静</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>7.10
+王建</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>7.8
-朱雨晗</t>
+          <t>7.10
+王正阳</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>7.8
-吴红晨</t>
+          <t>7.10
+魏祥瑞</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>7.8
-褚淑慧</t>
+          <t>7.10
+任俊卿</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>7.8
-刘垚</t>
+          <t>7.10
+王世奥</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>7.8
-吴璐屹</t>
+          <t>7.10
+张祥满</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>7.8
-刘梦微</t>
+          <t>7.10
+王坤鹏</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>7.10
+张祥光</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>7.8
-孙悦</t>
+          <t>7.10
+张宗稳</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>7.8
-王翠迪</t>
+          <t>7.10
+魏衍昭</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>7.8
-伍梓轩</t>
+          <t>7.10
+任文泽</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>7.8
-张子涵</t>
+          <t>7.10
+周飞飞</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>7.8
-魏一曼</t>
+          <t>7.10
+周赛</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>7.8
-张一诺</t>
+          <t>7.10
+刘利</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>7.10
+马悦腾</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>7.8
-魏涵梦</t>
+          <t>7.10
+王俊杰</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>7.8
-邢若菲</t>
+          <t>7.10
+王通</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>7.8
-魏鲁</t>
+          <t>7.10
+吴红奔</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>7.8
-伍静涵</t>
+          <t>7.10
+刘新增</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>7.8
-解雨菲</t>
+          <t>7.10
+魏衍威</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>7.9
-卜祥士</t>
+          <t>7.10
+刘宇泽</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>7.10
+解浩轩</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>7.9
-任庆崭</t>
+          <t>7.10
+于笑</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>7.9
-刘伟向</t>
+          <t>7.10
+刘亚茜</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>7.9
-陶红毅</t>
+          <t>7.10
+任梦晴</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>7.9
-卜维奥</t>
+          <t>7.10
+王芸杰</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>7.9
-王轩</t>
+          <t>7.10
+刘舒含</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>7.9
-王志奥</t>
+          <t>7.10
+常书慧</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>7.10
+王语熙</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>7.9
-公祥浩</t>
+          <t>7.10
+王珂馨</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>7.9
-王子晨</t>
+          <t>7.10
+王亚楠</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>7.9
-王贤俊</t>
+          <t>7.10
+朱颖颖</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>7.9
-伍广恒</t>
+          <t>7.10
+刘敏</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>7.9
-刘存耀</t>
+          <t>7.10
+贾相阳</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>7.9
-王俊友</t>
+          <t>7.10
+魏淑美</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>7.10
+闫紫绚</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>7.9
-王文博</t>
+          <t>7.10
+卜茜蕊</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>7.9
-张晓雷</t>
+          <t>7.10
+解欣悦</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>7.9
-解庆硕</t>
+          <t>7.10
+马跃</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>7.9
-褚乾通</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>7.9
-魏祥瑞</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>7.9
-邓延阔</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>7.9
-邢绪泽</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>7.9
-解瑞博</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>7.9
-梁邦测</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>7.9
-解雨泽</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>7.9
-魏佳佳</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>7.9
-刘馨</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>7.9
-王梦颖</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>7.9
-解淑涵</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>7.9
-李琪</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>7.9
-王亚楠</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>7.9
-孙梦珠</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>7.9
-董玉茹</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>7.9
-王淑冉</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>7.9
-解娜</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>7.9
-刘依容</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>7.9
-高文静</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>7.10
-王建</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>7.10
-王正阳</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>7.10
-魏祥瑞</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>7.10
-任俊卿</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>7.10
-王世奥</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>7.10
-张祥满</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>7.10
-王坤鹏</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>7.10
-张祥光</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>7.10
-张宗稳</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>7.10
-魏衍昭</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>7.10
-任文泽</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>7.10
-周飞飞</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>7.10
-周赛</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>7.10
-刘利</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>7.10
-马悦腾</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>7.10
-王俊杰</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>7.10
-王通</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>7.10
-吴红奔</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>7.10
-刘新增</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>7.10
-魏衍威</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>7.10
-刘宇泽</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>7.10
-解浩轩</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>7.10
-于笑</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>7.10
-刘亚茜</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>7.10
-任梦晴</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>7.10
-王芸杰</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>7.10
-刘舒含</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>7.10
-常书慧</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>7.10
-王语熙</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>7.10
-王珂馨</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>7.10
-王亚楠</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>7.10
-朱颖颖</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>7.10
-刘敏</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>7.10
-贾相阳</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>7.10
-魏淑美</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>7.10
-闫紫绚</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>7.10
-卜茜蕊</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>7.10
-解欣悦</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>7.10
-马跃</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
           <t>7.10
 解淑颖</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr"/>
-      <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr"/>
-      <c r="F69" t="inlineStr"/>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
